--- a/protect_baltic/src/data/examplePressureState.xlsx
+++ b/protect_baltic/src/data/examplePressureState.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Documents\SOM\protect_baltic\src\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Documents\SOM\protect_baltic\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9A8BD-2FAB-404F-BE53-0F0CD36AD9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14878501-5445-40F9-9B36-1C9668BA5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="16695" windowWidth="23370" windowHeight="13065" xr2:uid="{228B4814-2F6F-4BD3-AA77-1C2D989F97FC}"/>
+    <workbookView xWindow="-22575" yWindow="4665" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{228B4814-2F6F-4BD3-AA77-1C2D989F97FC}"/>
   </bookViews>
   <sheets>
     <sheet name="PSQ" sheetId="2" r:id="rId1"/>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7DD2CD-D059-4D01-B813-48CEC5A22875}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +791,15 @@
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -802,6 +811,15 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -825,6 +843,15 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -842,6 +869,15 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -865,6 +901,15 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -875,6 +920,15 @@
       </c>
       <c r="C7">
         <v>5</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="P7">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23BB6F-5114-40CD-9BCB-6152FFAA85A3}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -983,6 +1039,15 @@
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -994,6 +1059,15 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1017,6 +1091,15 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1034,6 +1117,15 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1057,6 +1149,15 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1067,6 +1168,15 @@
       </c>
       <c r="C7">
         <v>5</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="P7">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
